--- a/Code/Results/Cases/Case_3_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.093384191245349</v>
+        <v>0.6803744281114348</v>
       </c>
       <c r="C2">
-        <v>0.1171809712082563</v>
+        <v>0.2145998752147662</v>
       </c>
       <c r="D2">
-        <v>0.1406881017636863</v>
+        <v>0.2109788960596148</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6614205342963118</v>
+        <v>1.440208222474048</v>
       </c>
       <c r="G2">
-        <v>0.3892484768100672</v>
+        <v>0.8003659862271277</v>
       </c>
       <c r="H2">
-        <v>0.3441285585788734</v>
+        <v>0.8903937029114033</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08931793639624175</v>
+        <v>0.2257039721467713</v>
       </c>
       <c r="K2">
-        <v>0.8464879591124657</v>
+        <v>0.3115370086762539</v>
       </c>
       <c r="L2">
-        <v>0.2475027203141025</v>
+        <v>0.3221036421143424</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.880564001789562</v>
+        <v>1.808715983579878</v>
       </c>
       <c r="O2">
-        <v>1.492767726645425</v>
+        <v>3.399185732184108</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9539863380188649</v>
+        <v>0.6417126112047811</v>
       </c>
       <c r="C3">
-        <v>0.1181155004545822</v>
+        <v>0.2152185454123341</v>
       </c>
       <c r="D3">
-        <v>0.1282684403680463</v>
+        <v>0.2085745742284644</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6477337675949144</v>
+        <v>1.445677040594703</v>
       </c>
       <c r="G3">
-        <v>0.3828856020409717</v>
+        <v>0.8044376424257678</v>
       </c>
       <c r="H3">
-        <v>0.3464121573716952</v>
+        <v>0.8957523928771209</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0890378545576489</v>
+        <v>0.2268430369707133</v>
       </c>
       <c r="K3">
-        <v>0.7370986972244822</v>
+        <v>0.2785611549095393</v>
       </c>
       <c r="L3">
-        <v>0.2230605294548127</v>
+        <v>0.3168923392656069</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9167585892984302</v>
+        <v>1.824896324991139</v>
       </c>
       <c r="O3">
-        <v>1.48372937805577</v>
+        <v>3.418794036744046</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8686173883280333</v>
+        <v>0.6181690314968478</v>
       </c>
       <c r="C4">
-        <v>0.1187396856479204</v>
+        <v>0.2156302678234034</v>
       </c>
       <c r="D4">
-        <v>0.1207391557677369</v>
+        <v>0.207176592371809</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6403285577721078</v>
+        <v>1.449658139633421</v>
       </c>
       <c r="G4">
-        <v>0.3797020404591791</v>
+        <v>0.8073435992009692</v>
       </c>
       <c r="H4">
-        <v>0.3482729277815864</v>
+        <v>0.8993490439589138</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08897762195926262</v>
+        <v>0.2276200613426482</v>
       </c>
       <c r="K4">
-        <v>0.669917108577323</v>
+        <v>0.2583189851188905</v>
       </c>
       <c r="L4">
-        <v>0.2082170912117789</v>
+        <v>0.3138163678670907</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9399492792751172</v>
+        <v>1.835357425023448</v>
       </c>
       <c r="O4">
-        <v>1.480664530266054</v>
+        <v>3.432327065961587</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8338754441371066</v>
+        <v>0.6086246635806276</v>
       </c>
       <c r="C5">
-        <v>0.1190066507775782</v>
+        <v>0.215806084294826</v>
       </c>
       <c r="D5">
-        <v>0.1176940242453313</v>
+        <v>0.2066266892620092</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6375533038829531</v>
+        <v>1.451437401970715</v>
       </c>
       <c r="G5">
-        <v>0.3785796172922176</v>
+        <v>0.8086299432606125</v>
       </c>
       <c r="H5">
-        <v>0.3491435003184193</v>
+        <v>0.9008918605251353</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08898045895193007</v>
+        <v>0.2279562594851114</v>
       </c>
       <c r="K5">
-        <v>0.64252996344743</v>
+        <v>0.2500720181453602</v>
       </c>
       <c r="L5">
-        <v>0.2022070706628298</v>
+        <v>0.3125941770503999</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9496381549247275</v>
+        <v>1.839752820719053</v>
       </c>
       <c r="O5">
-        <v>1.480019251330162</v>
+        <v>3.438217781865902</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8281091250971713</v>
+        <v>0.6070428622484769</v>
       </c>
       <c r="C6">
-        <v>0.119051739614104</v>
+        <v>0.2158357646136899</v>
       </c>
       <c r="D6">
-        <v>0.1171897461459253</v>
+        <v>0.2065365762645683</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6371068707412277</v>
+        <v>1.451742331843143</v>
       </c>
       <c r="G6">
-        <v>0.3784036051729345</v>
+        <v>0.8088497108228125</v>
       </c>
       <c r="H6">
-        <v>0.3492947541668556</v>
+        <v>0.9011527069784435</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0889825634715109</v>
+        <v>0.2280132669301516</v>
       </c>
       <c r="K6">
-        <v>0.6379815684247774</v>
+        <v>0.2487027465510607</v>
       </c>
       <c r="L6">
-        <v>0.2012113844565206</v>
+        <v>0.3123931280241123</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9512612553981796</v>
+        <v>1.840490672272521</v>
       </c>
       <c r="O6">
-        <v>1.479947961881379</v>
+        <v>3.439218644465058</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8681486694772218</v>
+        <v>0.6180401099657047</v>
       </c>
       <c r="C7">
-        <v>0.1187432350791866</v>
+        <v>0.2156326063714715</v>
       </c>
       <c r="D7">
-        <v>0.1206979959421801</v>
+        <v>0.2071690959387809</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6402901593232428</v>
+        <v>1.44968149968571</v>
       </c>
       <c r="G7">
-        <v>0.3796862038887099</v>
+        <v>0.8073605336267562</v>
       </c>
       <c r="H7">
-        <v>0.3482842178698959</v>
+        <v>0.8993695383950566</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08897755027440013</v>
+        <v>0.2276245162093105</v>
       </c>
       <c r="K7">
-        <v>0.6695478046151635</v>
+        <v>0.2582077552383879</v>
       </c>
       <c r="L7">
-        <v>0.2081358840651077</v>
+        <v>0.3137997580540812</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9400789872960473</v>
+        <v>1.835416166641009</v>
       </c>
       <c r="O7">
-        <v>1.48065341086064</v>
+        <v>3.432404987751681</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.045268033237164</v>
+        <v>0.6670038514300813</v>
       </c>
       <c r="C8">
-        <v>0.1174927009224405</v>
+        <v>0.2148065962834558</v>
       </c>
       <c r="D8">
-        <v>0.1363850837248322</v>
+        <v>0.2101336982366888</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6564887696466428</v>
+        <v>1.441964650141955</v>
       </c>
       <c r="G8">
-        <v>0.3869001586489276</v>
+        <v>0.8016856780842119</v>
       </c>
       <c r="H8">
-        <v>0.3448188894157909</v>
+        <v>0.8921778511572072</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08919773314397617</v>
+        <v>0.2260806283052368</v>
       </c>
       <c r="K8">
-        <v>0.8087701199835635</v>
+        <v>0.3001662116089676</v>
       </c>
       <c r="L8">
-        <v>0.2390394459752656</v>
+        <v>0.3202811889045734</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8928403018008666</v>
+        <v>1.814185773375616</v>
       </c>
       <c r="O8">
-        <v>1.489122601641</v>
+        <v>3.40563692154501</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.394813996847091</v>
+        <v>0.7645375460863875</v>
       </c>
       <c r="C9">
-        <v>0.1154432001368662</v>
+        <v>0.2134384318070417</v>
       </c>
       <c r="D9">
-        <v>0.1679678199165835</v>
+        <v>0.2165644075683417</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6965869898154153</v>
+        <v>1.431768136692185</v>
       </c>
       <c r="G9">
-        <v>0.4071148276922614</v>
+        <v>0.7937758734074549</v>
       </c>
       <c r="H9">
-        <v>0.3418056495433319</v>
+        <v>0.8805014512505522</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09054990601013557</v>
+        <v>0.2236676646463387</v>
       </c>
       <c r="K9">
-        <v>1.081958468335159</v>
+        <v>0.3824654192757748</v>
       </c>
       <c r="L9">
-        <v>0.3010641439072543</v>
+        <v>0.3339671333436485</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8080968538088804</v>
+        <v>1.776725390593253</v>
       </c>
       <c r="O9">
-        <v>1.526444525896807</v>
+        <v>3.364980176322717</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.653667199357102</v>
+        <v>0.8370858005774551</v>
       </c>
       <c r="C10">
-        <v>0.1141874546168253</v>
+        <v>0.2125851328120589</v>
       </c>
       <c r="D10">
-        <v>0.1917543385317799</v>
+        <v>0.2216605734043497</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7317264942354669</v>
+        <v>1.42727534134854</v>
       </c>
       <c r="G10">
-        <v>0.4261464549955178</v>
+        <v>0.7899241092241027</v>
       </c>
       <c r="H10">
-        <v>0.3421064797081925</v>
+        <v>0.873395942528191</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09215373520283876</v>
+        <v>0.2222677212963156</v>
       </c>
       <c r="K10">
-        <v>1.28323899135566</v>
+        <v>0.4429183948087427</v>
       </c>
       <c r="L10">
-        <v>0.3476810070830538</v>
+        <v>0.3446099183828153</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7509598817497078</v>
+        <v>1.751741020520786</v>
       </c>
       <c r="O10">
-        <v>1.567949825897273</v>
+        <v>3.342306988292933</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.772033619657378</v>
+        <v>0.8702764262517917</v>
       </c>
       <c r="C11">
-        <v>0.1136715284014613</v>
+        <v>0.2122296086751234</v>
       </c>
       <c r="D11">
-        <v>0.2027213009977089</v>
+        <v>0.224058666913308</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7490856339241176</v>
+        <v>1.425880388135653</v>
       </c>
       <c r="G11">
-        <v>0.4358244008535621</v>
+        <v>0.7885968504308636</v>
       </c>
       <c r="H11">
-        <v>0.3428382625024256</v>
+        <v>0.8704820676223193</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09302738847954117</v>
+        <v>0.221711436039314</v>
       </c>
       <c r="K11">
-        <v>1.375040773848269</v>
+        <v>0.4704126632558712</v>
       </c>
       <c r="L11">
-        <v>0.3691579616233867</v>
+        <v>0.3495777643040014</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7261524431433379</v>
+        <v>1.740924806738205</v>
       </c>
       <c r="O11">
-        <v>1.590230785897432</v>
+        <v>3.333551564601294</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.816958031542498</v>
+        <v>0.8828711586351972</v>
       </c>
       <c r="C12">
-        <v>0.1134842099318512</v>
+        <v>0.2120996499060972</v>
       </c>
       <c r="D12">
-        <v>0.206896898380279</v>
+        <v>0.2249781462715532</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.755868960516068</v>
+        <v>1.425445260111559</v>
       </c>
       <c r="G12">
-        <v>0.4396458086993107</v>
+        <v>0.7881553051885817</v>
       </c>
       <c r="H12">
-        <v>0.3432052448872724</v>
+        <v>0.8694243506796795</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09337994253907667</v>
+        <v>0.2215123377509585</v>
       </c>
       <c r="K12">
-        <v>1.409847392395818</v>
+        <v>0.4808226221116172</v>
       </c>
       <c r="L12">
-        <v>0.3773332935020335</v>
+        <v>0.3514769824284372</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7169354095599658</v>
+        <v>1.736907912927762</v>
       </c>
       <c r="O12">
-        <v>1.599186967610166</v>
+        <v>3.330459940272306</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.807278011820301</v>
+        <v>0.880157508091429</v>
       </c>
       <c r="C13">
-        <v>0.1135241926187476</v>
+        <v>0.2121274315107264</v>
       </c>
       <c r="D13">
-        <v>0.2059965750860187</v>
+        <v>0.2247796157776349</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7543985168883154</v>
+        <v>1.42553483466758</v>
       </c>
       <c r="G13">
-        <v>0.4388156731720017</v>
+        <v>0.7882476849743796</v>
       </c>
       <c r="H13">
-        <v>0.3431221400353195</v>
+        <v>0.869650117659944</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09330303109322813</v>
+        <v>0.2215547036848875</v>
       </c>
       <c r="K13">
-        <v>1.402349089473944</v>
+        <v>0.4785807293051221</v>
       </c>
       <c r="L13">
-        <v>0.3755706416142601</v>
+        <v>0.3510671538906678</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7189124799256348</v>
+        <v>1.737769510848086</v>
       </c>
       <c r="O13">
-        <v>1.597234521240068</v>
+        <v>3.331115824878481</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.775727461045932</v>
+        <v>0.8713120831675383</v>
       </c>
       <c r="C14">
-        <v>0.1136559556580536</v>
+        <v>0.212218823422063</v>
       </c>
       <c r="D14">
-        <v>0.2030643665385412</v>
+        <v>0.224134085695411</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7496394251451832</v>
+        <v>1.425842724920471</v>
       </c>
       <c r="G14">
-        <v>0.4361355938001594</v>
+        <v>0.7885593007888332</v>
       </c>
       <c r="H14">
-        <v>0.3428666275311798</v>
+        <v>0.8703941331423124</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09305595204918404</v>
+        <v>0.2216948246924026</v>
       </c>
       <c r="K14">
-        <v>1.377903414162574</v>
+        <v>0.4712691310882349</v>
       </c>
       <c r="L14">
-        <v>0.3698296787426614</v>
+        <v>0.3497336543076699</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7253905651974115</v>
+        <v>1.740592751848702</v>
       </c>
       <c r="O14">
-        <v>1.590957039708911</v>
+        <v>3.333292729819703</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.756415486865677</v>
+        <v>0.8658973860300989</v>
       </c>
       <c r="C15">
-        <v>0.1137377158470372</v>
+        <v>0.2122754111364742</v>
       </c>
       <c r="D15">
-        <v>0.2012713024738133</v>
+        <v>0.2237401579164811</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7467520404253065</v>
+        <v>1.426043436614371</v>
       </c>
       <c r="G15">
-        <v>0.4345146613207049</v>
+        <v>0.7887581247864972</v>
       </c>
       <c r="H15">
-        <v>0.3427219553483667</v>
+        <v>0.8708558135023878</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09290746842050268</v>
+        <v>0.2217821567802645</v>
       </c>
       <c r="K15">
-        <v>1.362935646001233</v>
+        <v>0.4667903483781117</v>
       </c>
       <c r="L15">
-        <v>0.3663188137029891</v>
+        <v>0.3489191866817549</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7293818354219379</v>
+        <v>1.742332352443508</v>
       </c>
       <c r="O15">
-        <v>1.58718039143011</v>
+        <v>3.334655292480278</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.645945140510946</v>
+        <v>0.8349204241700647</v>
       </c>
       <c r="C16">
-        <v>0.1142222929150591</v>
+        <v>0.2126090220197732</v>
       </c>
       <c r="D16">
-        <v>0.1910407015950994</v>
+        <v>0.2215054496118256</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7306207105927243</v>
+        <v>1.427379544757912</v>
       </c>
       <c r="G16">
-        <v>0.4255353401222237</v>
+        <v>0.7900193954867092</v>
       </c>
       <c r="H16">
-        <v>0.3420709912419113</v>
+        <v>0.8735927716143266</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09209962342424305</v>
+        <v>0.2223056943596227</v>
       </c>
       <c r="K16">
-        <v>1.277245080091404</v>
+        <v>0.4411214017307259</v>
       </c>
       <c r="L16">
-        <v>0.3462831833890476</v>
+        <v>0.3442877865550997</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7526055032693062</v>
+        <v>1.752458937347512</v>
       </c>
       <c r="O16">
-        <v>1.566564650195915</v>
+        <v>3.342910517569322</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.578341445131798</v>
+        <v>0.8159646022158427</v>
       </c>
       <c r="C17">
-        <v>0.1145338008842387</v>
+        <v>0.2128220257940505</v>
       </c>
       <c r="D17">
-        <v>0.1848031554105489</v>
+        <v>0.220154898176034</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7210850522506433</v>
+        <v>1.42836525115807</v>
       </c>
       <c r="G17">
-        <v>0.4202949899074184</v>
+        <v>0.7909019464129443</v>
       </c>
       <c r="H17">
-        <v>0.3418270186316903</v>
+        <v>0.8753533073975319</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09164163203654851</v>
+        <v>0.2226474793841255</v>
       </c>
       <c r="K17">
-        <v>1.224743940996063</v>
+        <v>0.4253723129653508</v>
       </c>
       <c r="L17">
-        <v>0.3340637660865866</v>
+        <v>0.3414788217102966</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.767160477650819</v>
+        <v>1.758811945419117</v>
       </c>
       <c r="O17">
-        <v>1.554809149512892</v>
+        <v>3.348373859545262</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.539514408311163</v>
+        <v>0.8050794686075449</v>
       </c>
       <c r="C18">
-        <v>0.1147181727721538</v>
+        <v>0.2129476141343929</v>
       </c>
       <c r="D18">
-        <v>0.1812291584227097</v>
+        <v>0.2193856162272283</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7157289496747268</v>
+        <v>1.428993286991322</v>
       </c>
       <c r="G18">
-        <v>0.417376297762118</v>
+        <v>0.7914495653392919</v>
       </c>
       <c r="H18">
-        <v>0.3417424167204786</v>
+        <v>0.8763959009842637</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0913917040786103</v>
+        <v>0.2228516491316341</v>
       </c>
       <c r="K18">
-        <v>1.194568525511414</v>
+        <v>0.4163133188512802</v>
       </c>
       <c r="L18">
-        <v>0.3270607361678088</v>
+        <v>0.3398750861140485</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7756431791535636</v>
+        <v>1.762517731364422</v>
       </c>
       <c r="O18">
-        <v>1.54836582637347</v>
+        <v>3.351662960387785</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.526377602647841</v>
+        <v>0.8013970254463914</v>
       </c>
       <c r="C19">
-        <v>0.1147814882957086</v>
+        <v>0.212990664917097</v>
       </c>
       <c r="D19">
-        <v>0.180021365760453</v>
+        <v>0.2191264452563075</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7139371839964852</v>
+        <v>1.429216426149175</v>
       </c>
       <c r="G19">
-        <v>0.4164041759803752</v>
+        <v>0.7916418509334733</v>
       </c>
       <c r="H19">
-        <v>0.3417232151401493</v>
+        <v>0.8767540570791255</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09130937111151383</v>
+        <v>0.2229220809504717</v>
       </c>
       <c r="K19">
-        <v>1.184355136499562</v>
+        <v>0.4132460269781859</v>
       </c>
       <c r="L19">
-        <v>0.3246938636086014</v>
+        <v>0.3393341390183338</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7785341540715649</v>
+        <v>1.763781327544519</v>
       </c>
       <c r="O19">
-        <v>1.546237982412663</v>
+        <v>3.35280180308169</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.5855319981805</v>
+        <v>0.817980650743948</v>
       </c>
       <c r="C20">
-        <v>0.1145001013882272</v>
+        <v>0.2127990331845169</v>
       </c>
       <c r="D20">
-        <v>0.1854657262709907</v>
+        <v>0.2202978892015324</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7220867480323037</v>
+        <v>1.428254000498931</v>
       </c>
       <c r="G20">
-        <v>0.4208428890963063</v>
+        <v>0.7908038579426631</v>
       </c>
       <c r="H20">
-        <v>0.3418471921386157</v>
+        <v>0.8751627931924446</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0916889820586384</v>
+        <v>0.222610311075421</v>
       </c>
       <c r="K20">
-        <v>1.230330452013987</v>
+        <v>0.4270488903910348</v>
       </c>
       <c r="L20">
-        <v>0.3353619050249108</v>
+        <v>0.3417766097612827</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7655995337295778</v>
+        <v>1.758130305854374</v>
       </c>
       <c r="O20">
-        <v>1.556027405941137</v>
+        <v>3.347777093365181</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.784991752791854</v>
+        <v>0.873909495850711</v>
       </c>
       <c r="C21">
-        <v>0.1136170343424716</v>
+        <v>0.2121918528352609</v>
       </c>
       <c r="D21">
-        <v>0.2039249994301002</v>
+        <v>0.2243233856944045</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7510314910476339</v>
+        <v>1.425749764631547</v>
       </c>
       <c r="G21">
-        <v>0.4369184671686952</v>
+        <v>0.7884661149138026</v>
       </c>
       <c r="H21">
-        <v>0.3429392029367619</v>
+        <v>0.8701743580706705</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09312792738111852</v>
+        <v>0.2216533543908064</v>
       </c>
       <c r="K21">
-        <v>1.385082452175908</v>
+        <v>0.4734167712418582</v>
       </c>
       <c r="L21">
-        <v>0.3715147565928589</v>
+        <v>0.3501248482435528</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7234829355538732</v>
+        <v>1.739761354389813</v>
       </c>
       <c r="O21">
-        <v>1.592786558927344</v>
+        <v>3.332647246664919</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.915949442043058</v>
+        <v>0.9106143171099745</v>
       </c>
       <c r="C22">
-        <v>0.1130868787244239</v>
+        <v>0.2118222376838403</v>
       </c>
       <c r="D22">
-        <v>0.2161220131609127</v>
+        <v>0.227020524419828</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.77117759658843</v>
+        <v>1.424655731453932</v>
       </c>
       <c r="G22">
-        <v>0.4483424456842471</v>
+        <v>0.7872941410902285</v>
       </c>
       <c r="H22">
-        <v>0.3441789303118128</v>
+        <v>0.8671804854314615</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09419547226380587</v>
+        <v>0.2210952650701152</v>
       </c>
       <c r="K22">
-        <v>1.486478707468507</v>
+        <v>0.5037116785979379</v>
       </c>
       <c r="L22">
-        <v>0.3953921165471996</v>
+        <v>0.355685758156838</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6969923970367393</v>
+        <v>1.728216483356139</v>
       </c>
       <c r="O22">
-        <v>1.619850316546945</v>
+        <v>3.324063742286967</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.845995339078002</v>
+        <v>0.8910106381121921</v>
       </c>
       <c r="C23">
-        <v>0.1133655006691434</v>
+        <v>0.2120170261790761</v>
       </c>
       <c r="D23">
-        <v>0.2095995321330548</v>
+        <v>0.2255749840813053</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7603085605044697</v>
+        <v>1.425190050481568</v>
       </c>
       <c r="G23">
-        <v>0.4421578802355555</v>
+        <v>0.7878870979512413</v>
       </c>
       <c r="H23">
-        <v>0.343467637032262</v>
+        <v>0.8687540292721678</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09361372611904528</v>
+        <v>0.2213869760480307</v>
       </c>
       <c r="K23">
-        <v>1.432334972537063</v>
+        <v>0.4875437707256651</v>
       </c>
       <c r="L23">
-        <v>0.3826242729012534</v>
+        <v>0.3527082586686276</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7110338789031054</v>
+        <v>1.734336085856743</v>
       </c>
       <c r="O23">
-        <v>1.605117403746931</v>
+        <v>3.328525629580128</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.582281027970197</v>
+        <v>0.8170691552017217</v>
       </c>
       <c r="C24">
-        <v>0.1145153204860279</v>
+        <v>0.2128094183942757</v>
       </c>
       <c r="D24">
-        <v>0.1851661405675458</v>
+        <v>0.220233220623939</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7216334895914969</v>
+        <v>1.428304105838905</v>
       </c>
       <c r="G24">
-        <v>0.420594891651163</v>
+        <v>0.7908480784278993</v>
       </c>
       <c r="H24">
-        <v>0.3418378986477961</v>
+        <v>0.8752488298455035</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09166753352137391</v>
+        <v>0.2226270909654069</v>
       </c>
       <c r="K24">
-        <v>1.227804765550644</v>
+        <v>0.4262909241194563</v>
       </c>
       <c r="L24">
-        <v>0.3347749479151929</v>
+        <v>0.3416419449603438</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7663048792366265</v>
+        <v>1.758438308896631</v>
       </c>
       <c r="O24">
-        <v>1.555475653079583</v>
+        <v>3.348046429850399</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.299946454760857</v>
+        <v>0.7379933094377407</v>
       </c>
       <c r="C25">
-        <v>0.1159540776243091</v>
+        <v>0.213781774095807</v>
       </c>
       <c r="D25">
-        <v>0.1593277548958696</v>
+        <v>0.214759147232769</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.68478728425778</v>
+        <v>1.433999210565005</v>
       </c>
       <c r="G25">
-        <v>0.4009485085461435</v>
+        <v>0.7955713782951435</v>
       </c>
       <c r="H25">
-        <v>0.3421950111300234</v>
+        <v>0.8834010883666039</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09008063604398586</v>
+        <v>0.2242548262523307</v>
       </c>
       <c r="K25">
-        <v>1.007989077629674</v>
+        <v>0.3602017410856035</v>
       </c>
       <c r="L25">
-        <v>0.2841145060662313</v>
+        <v>0.3301609918094783</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8301460646411645</v>
+        <v>1.786413347356612</v>
       </c>
       <c r="O25">
-        <v>1.513984650432363</v>
+        <v>3.374713690945043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6803744281114348</v>
+        <v>1.093384191245605</v>
       </c>
       <c r="C2">
-        <v>0.2145998752147662</v>
+        <v>0.1171809712083451</v>
       </c>
       <c r="D2">
-        <v>0.2109788960596148</v>
+        <v>0.1406881017638568</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.440208222474048</v>
+        <v>0.6614205342963118</v>
       </c>
       <c r="G2">
-        <v>0.8003659862271277</v>
+        <v>0.3892484768101241</v>
       </c>
       <c r="H2">
-        <v>0.8903937029114033</v>
+        <v>0.3441285585789871</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2257039721467713</v>
+        <v>0.08931793639634833</v>
       </c>
       <c r="K2">
-        <v>0.3115370086762539</v>
+        <v>0.8464879591124088</v>
       </c>
       <c r="L2">
-        <v>0.3221036421143424</v>
+        <v>0.2475027203141735</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.808715983579878</v>
+        <v>0.880564001789562</v>
       </c>
       <c r="O2">
-        <v>3.399185732184108</v>
+        <v>1.492767726645368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6417126112047811</v>
+        <v>0.9539863380187228</v>
       </c>
       <c r="C3">
-        <v>0.2152185454123341</v>
+        <v>0.1181155004548948</v>
       </c>
       <c r="D3">
-        <v>0.2085745742284644</v>
+        <v>0.12826844036816</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.445677040594703</v>
+        <v>0.6477337675949357</v>
       </c>
       <c r="G3">
-        <v>0.8044376424257678</v>
+        <v>0.3828856020409575</v>
       </c>
       <c r="H3">
-        <v>0.8957523928771209</v>
+        <v>0.3464121573718231</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2268430369707133</v>
+        <v>0.08903785455763824</v>
       </c>
       <c r="K3">
-        <v>0.2785611549095393</v>
+        <v>0.7370986972245959</v>
       </c>
       <c r="L3">
-        <v>0.3168923392656069</v>
+        <v>0.2230605294548837</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.824896324991139</v>
+        <v>0.9167585892983823</v>
       </c>
       <c r="O3">
-        <v>3.418794036744046</v>
+        <v>1.483729378055799</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6181690314968478</v>
+        <v>0.8686173883280617</v>
       </c>
       <c r="C4">
-        <v>0.2156302678234034</v>
+        <v>0.1187396856482437</v>
       </c>
       <c r="D4">
-        <v>0.207176592371809</v>
+        <v>0.1207391557677084</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.449658139633421</v>
+        <v>0.6403285577720936</v>
       </c>
       <c r="G4">
-        <v>0.8073435992009692</v>
+        <v>0.3797020404592146</v>
       </c>
       <c r="H4">
-        <v>0.8993490439589138</v>
+        <v>0.3482729277816077</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2276200613426482</v>
+        <v>0.08897762195923065</v>
       </c>
       <c r="K4">
-        <v>0.2583189851188905</v>
+        <v>0.669917108577323</v>
       </c>
       <c r="L4">
-        <v>0.3138163678670907</v>
+        <v>0.2082170912118073</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.835357425023448</v>
+        <v>0.9399492792751278</v>
       </c>
       <c r="O4">
-        <v>3.432327065961587</v>
+        <v>1.480664530266054</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6086246635806276</v>
+        <v>0.8338754441370497</v>
       </c>
       <c r="C5">
-        <v>0.215806084294826</v>
+        <v>0.1190066507774468</v>
       </c>
       <c r="D5">
-        <v>0.2066266892620092</v>
+        <v>0.1176940242453739</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.451437401970715</v>
+        <v>0.6375533038829531</v>
       </c>
       <c r="G5">
-        <v>0.8086299432606125</v>
+        <v>0.3785796172922531</v>
       </c>
       <c r="H5">
-        <v>0.9008918605251353</v>
+        <v>0.3491435003182985</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2279562594851114</v>
+        <v>0.08898045895179862</v>
       </c>
       <c r="K5">
-        <v>0.2500720181453602</v>
+        <v>0.6425299634474726</v>
       </c>
       <c r="L5">
-        <v>0.3125941770503999</v>
+        <v>0.2022070706629222</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.839752820719053</v>
+        <v>0.9496381549247186</v>
       </c>
       <c r="O5">
-        <v>3.438217781865902</v>
+        <v>1.480019251330191</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6070428622484769</v>
+        <v>0.8281091250971713</v>
       </c>
       <c r="C6">
-        <v>0.2158357646136899</v>
+        <v>0.1190517396139761</v>
       </c>
       <c r="D6">
-        <v>0.2065365762645683</v>
+        <v>0.1171897461458968</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.451742331843143</v>
+        <v>0.6371068707412064</v>
       </c>
       <c r="G6">
-        <v>0.8088497108228125</v>
+        <v>0.3784036051729416</v>
       </c>
       <c r="H6">
-        <v>0.9011527069784435</v>
+        <v>0.3492947541668556</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2280132669301516</v>
+        <v>0.0889825634715109</v>
       </c>
       <c r="K6">
-        <v>0.2487027465510607</v>
+        <v>0.6379815684247916</v>
       </c>
       <c r="L6">
-        <v>0.3123931280241123</v>
+        <v>0.2012113844564354</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.840490672272521</v>
+        <v>0.9512612553981636</v>
       </c>
       <c r="O6">
-        <v>3.439218644465058</v>
+        <v>1.479947961881365</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6180401099657047</v>
+        <v>0.8681486694773923</v>
       </c>
       <c r="C7">
-        <v>0.2156326063714715</v>
+        <v>0.1187432350791227</v>
       </c>
       <c r="D7">
-        <v>0.2071690959387809</v>
+        <v>0.1206979959423222</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.44968149968571</v>
+        <v>0.6402901593232215</v>
       </c>
       <c r="G7">
-        <v>0.8073605336267562</v>
+        <v>0.3796862038886815</v>
       </c>
       <c r="H7">
-        <v>0.8993695383950566</v>
+        <v>0.3482842178700096</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2276245162093105</v>
+        <v>0.08897755027444632</v>
       </c>
       <c r="K7">
-        <v>0.2582077552383879</v>
+        <v>0.6695478046150498</v>
       </c>
       <c r="L7">
-        <v>0.3137997580540812</v>
+        <v>0.2081358840651149</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.835416166641009</v>
+        <v>0.9400789872960509</v>
       </c>
       <c r="O7">
-        <v>3.432404987751681</v>
+        <v>1.480653410860626</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6670038514300813</v>
+        <v>1.045268033237306</v>
       </c>
       <c r="C8">
-        <v>0.2148065962834558</v>
+        <v>0.1174927009225328</v>
       </c>
       <c r="D8">
-        <v>0.2101336982366888</v>
+        <v>0.1363850837250595</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.441964650141955</v>
+        <v>0.6564887696466144</v>
       </c>
       <c r="G8">
-        <v>0.8016856780842119</v>
+        <v>0.3869001586488707</v>
       </c>
       <c r="H8">
-        <v>0.8921778511572072</v>
+        <v>0.3448188894157838</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2260806283052368</v>
+        <v>0.08919773314404367</v>
       </c>
       <c r="K8">
-        <v>0.3001662116089676</v>
+        <v>0.8087701199835351</v>
       </c>
       <c r="L8">
-        <v>0.3202811889045734</v>
+        <v>0.2390394459754503</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.814185773375616</v>
+        <v>0.892840301800863</v>
       </c>
       <c r="O8">
-        <v>3.40563692154501</v>
+        <v>1.489122601640972</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7645375460863875</v>
+        <v>1.394813996847205</v>
       </c>
       <c r="C9">
-        <v>0.2134384318070417</v>
+        <v>0.1154432001369514</v>
       </c>
       <c r="D9">
-        <v>0.2165644075683417</v>
+        <v>0.167967819916413</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.431768136692185</v>
+        <v>0.6965869898154153</v>
       </c>
       <c r="G9">
-        <v>0.7937758734074549</v>
+        <v>0.4071148276923182</v>
       </c>
       <c r="H9">
-        <v>0.8805014512505522</v>
+        <v>0.3418056495431898</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2236676646463387</v>
+        <v>0.09054990601011426</v>
       </c>
       <c r="K9">
-        <v>0.3824654192757748</v>
+        <v>1.081958468335074</v>
       </c>
       <c r="L9">
-        <v>0.3339671333436485</v>
+        <v>0.3010641439071975</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.776725390593253</v>
+        <v>0.8080968538088751</v>
       </c>
       <c r="O9">
-        <v>3.364980176322717</v>
+        <v>1.526444525896764</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8370858005774551</v>
+        <v>1.653667199357074</v>
       </c>
       <c r="C10">
-        <v>0.2125851328120589</v>
+        <v>0.1141874546168324</v>
       </c>
       <c r="D10">
-        <v>0.2216605734043497</v>
+        <v>0.1917543385316236</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.42727534134854</v>
+        <v>0.7317264942354456</v>
       </c>
       <c r="G10">
-        <v>0.7899241092241027</v>
+        <v>0.4261464549955889</v>
       </c>
       <c r="H10">
-        <v>0.873395942528191</v>
+        <v>0.3421064797080646</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2222677212963156</v>
+        <v>0.09215373520292403</v>
       </c>
       <c r="K10">
-        <v>0.4429183948087427</v>
+        <v>1.283238991355631</v>
       </c>
       <c r="L10">
-        <v>0.3446099183828153</v>
+        <v>0.347681007082997</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.751741020520786</v>
+        <v>0.7509598817497025</v>
       </c>
       <c r="O10">
-        <v>3.342306988292933</v>
+        <v>1.56794982589733</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8702764262517917</v>
+        <v>1.772033619657378</v>
       </c>
       <c r="C11">
-        <v>0.2122296086751234</v>
+        <v>0.113671528401369</v>
       </c>
       <c r="D11">
-        <v>0.224058666913308</v>
+        <v>0.2027213009977089</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.425880388135653</v>
+        <v>0.7490856339241034</v>
       </c>
       <c r="G11">
-        <v>0.7885968504308636</v>
+        <v>0.4358244008535479</v>
       </c>
       <c r="H11">
-        <v>0.8704820676223193</v>
+        <v>0.3428382625024113</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.221711436039314</v>
+        <v>0.09302738847955183</v>
       </c>
       <c r="K11">
-        <v>0.4704126632558712</v>
+        <v>1.375040773848156</v>
       </c>
       <c r="L11">
-        <v>0.3495777643040014</v>
+        <v>0.3691579616233156</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.740924806738205</v>
+        <v>0.7261524431432775</v>
       </c>
       <c r="O11">
-        <v>3.333551564601294</v>
+        <v>1.590230785897404</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8828711586351972</v>
+        <v>1.816958031542384</v>
       </c>
       <c r="C12">
-        <v>0.2120996499060972</v>
+        <v>0.1134842099316913</v>
       </c>
       <c r="D12">
-        <v>0.2249781462715532</v>
+        <v>0.2068968983804496</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.425445260111559</v>
+        <v>0.7558689605160467</v>
       </c>
       <c r="G12">
-        <v>0.7881553051885817</v>
+        <v>0.4396458086993533</v>
       </c>
       <c r="H12">
-        <v>0.8694243506796795</v>
+        <v>0.3432052448872724</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2215123377509585</v>
+        <v>0.09337994253914061</v>
       </c>
       <c r="K12">
-        <v>0.4808226221116172</v>
+        <v>1.409847392395818</v>
       </c>
       <c r="L12">
-        <v>0.3514769824284372</v>
+        <v>0.3773332935018914</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.736907912927762</v>
+        <v>0.7169354095599516</v>
       </c>
       <c r="O12">
-        <v>3.330459940272306</v>
+        <v>1.599186967610137</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.880157508091429</v>
+        <v>1.807278011820188</v>
       </c>
       <c r="C13">
-        <v>0.2121274315107264</v>
+        <v>0.1135241926185664</v>
       </c>
       <c r="D13">
-        <v>0.2247796157776349</v>
+        <v>0.2059965750859476</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.42553483466758</v>
+        <v>0.7543985168883225</v>
       </c>
       <c r="G13">
-        <v>0.7882476849743796</v>
+        <v>0.4388156731720585</v>
       </c>
       <c r="H13">
-        <v>0.869650117659944</v>
+        <v>0.3431221400354332</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2215547036848875</v>
+        <v>0.09330303109323168</v>
       </c>
       <c r="K13">
-        <v>0.4785807293051221</v>
+        <v>1.402349089474029</v>
       </c>
       <c r="L13">
-        <v>0.3510671538906678</v>
+        <v>0.3755706416142033</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.737769510848086</v>
+        <v>0.7189124799256508</v>
       </c>
       <c r="O13">
-        <v>3.331115824878481</v>
+        <v>1.59723452124021</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8713120831675383</v>
+        <v>1.775727461045847</v>
       </c>
       <c r="C14">
-        <v>0.212218823422063</v>
+        <v>0.113655955658146</v>
       </c>
       <c r="D14">
-        <v>0.224134085695411</v>
+        <v>0.2030643665386975</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.425842724920471</v>
+        <v>0.7496394251451761</v>
       </c>
       <c r="G14">
-        <v>0.7885593007888332</v>
+        <v>0.4361355938001878</v>
       </c>
       <c r="H14">
-        <v>0.8703941331423124</v>
+        <v>0.3428666275311656</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2216948246924026</v>
+        <v>0.09305595204915917</v>
       </c>
       <c r="K14">
-        <v>0.4712691310882349</v>
+        <v>1.377903414162546</v>
       </c>
       <c r="L14">
-        <v>0.3497336543076699</v>
+        <v>0.3698296787427893</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.740592751848702</v>
+        <v>0.7253905651973991</v>
       </c>
       <c r="O14">
-        <v>3.333292729819703</v>
+        <v>1.590957039708854</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8658973860300989</v>
+        <v>1.756415486865563</v>
       </c>
       <c r="C15">
-        <v>0.2122754111364742</v>
+        <v>0.1137377158468063</v>
       </c>
       <c r="D15">
-        <v>0.2237401579164811</v>
+        <v>0.2012713024739554</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.426043436614371</v>
+        <v>0.7467520404253136</v>
       </c>
       <c r="G15">
-        <v>0.7887581247864972</v>
+        <v>0.4345146613207476</v>
       </c>
       <c r="H15">
-        <v>0.8708558135023878</v>
+        <v>0.3427219553484804</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2217821567802645</v>
+        <v>0.0929074684205311</v>
       </c>
       <c r="K15">
-        <v>0.4667903483781117</v>
+        <v>1.362935646001233</v>
       </c>
       <c r="L15">
-        <v>0.3489191866817549</v>
+        <v>0.366318813703117</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.742332352443508</v>
+        <v>0.7293818354219344</v>
       </c>
       <c r="O15">
-        <v>3.334655292480278</v>
+        <v>1.587180391430053</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8349204241700647</v>
+        <v>1.645945140510946</v>
       </c>
       <c r="C16">
-        <v>0.2126090220197732</v>
+        <v>0.1142222929148247</v>
       </c>
       <c r="D16">
-        <v>0.2215054496118256</v>
+        <v>0.1910407015951137</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.427379544757912</v>
+        <v>0.7306207105927243</v>
       </c>
       <c r="G16">
-        <v>0.7900193954867092</v>
+        <v>0.4255353401222806</v>
       </c>
       <c r="H16">
-        <v>0.8735927716143266</v>
+        <v>0.3420709912419113</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2223056943596227</v>
+        <v>0.09209962342422173</v>
       </c>
       <c r="K16">
-        <v>0.4411214017307259</v>
+        <v>1.277245080091404</v>
       </c>
       <c r="L16">
-        <v>0.3442877865550997</v>
+        <v>0.3462831833890192</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.752458937347512</v>
+        <v>0.7526055032693684</v>
       </c>
       <c r="O16">
-        <v>3.342910517569322</v>
+        <v>1.566564650195943</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8159646022158427</v>
+        <v>1.578341445131798</v>
       </c>
       <c r="C17">
-        <v>0.2128220257940505</v>
+        <v>0.114533800884459</v>
       </c>
       <c r="D17">
-        <v>0.220154898176034</v>
+        <v>0.1848031554105631</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.42836525115807</v>
+        <v>0.7210850522506433</v>
       </c>
       <c r="G17">
-        <v>0.7909019464129443</v>
+        <v>0.4202949899074184</v>
       </c>
       <c r="H17">
-        <v>0.8753533073975319</v>
+        <v>0.3418270186316903</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2226474793841255</v>
+        <v>0.09164163203655207</v>
       </c>
       <c r="K17">
-        <v>0.4253723129653508</v>
+        <v>1.224743940995864</v>
       </c>
       <c r="L17">
-        <v>0.3414788217102966</v>
+        <v>0.3340637660865298</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.758811945419117</v>
+        <v>0.7671604776508811</v>
       </c>
       <c r="O17">
-        <v>3.348373859545262</v>
+        <v>1.554809149512863</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8050794686075449</v>
+        <v>1.539514408311021</v>
       </c>
       <c r="C18">
-        <v>0.2129476141343929</v>
+        <v>0.1147181727719122</v>
       </c>
       <c r="D18">
-        <v>0.2193856162272283</v>
+        <v>0.1812291584226813</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.428993286991322</v>
+        <v>0.7157289496747197</v>
       </c>
       <c r="G18">
-        <v>0.7914495653392919</v>
+        <v>0.4173762977620896</v>
       </c>
       <c r="H18">
-        <v>0.8763959009842637</v>
+        <v>0.3417424167204786</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2228516491316341</v>
+        <v>0.0913917040786103</v>
       </c>
       <c r="K18">
-        <v>0.4163133188512802</v>
+        <v>1.194568525511272</v>
       </c>
       <c r="L18">
-        <v>0.3398750861140485</v>
+        <v>0.3270607361677946</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.762517731364422</v>
+        <v>0.7756431791535441</v>
       </c>
       <c r="O18">
-        <v>3.351662960387785</v>
+        <v>1.548365826373441</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8013970254463914</v>
+        <v>1.526377602647841</v>
       </c>
       <c r="C19">
-        <v>0.212990664917097</v>
+        <v>0.1147814882959288</v>
       </c>
       <c r="D19">
-        <v>0.2191264452563075</v>
+        <v>0.1800213657602683</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.429216426149175</v>
+        <v>0.7139371839964852</v>
       </c>
       <c r="G19">
-        <v>0.7916418509334733</v>
+        <v>0.4164041759803752</v>
       </c>
       <c r="H19">
-        <v>0.8767540570791255</v>
+        <v>0.3417232151401493</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2229220809504717</v>
+        <v>0.09130937111151383</v>
       </c>
       <c r="K19">
-        <v>0.4132460269781859</v>
+        <v>1.184355136499704</v>
       </c>
       <c r="L19">
-        <v>0.3393341390183338</v>
+        <v>0.3246938636086298</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.763781327544519</v>
+        <v>0.7785341540715542</v>
       </c>
       <c r="O19">
-        <v>3.35280180308169</v>
+        <v>1.54623798241272</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.817980650743948</v>
+        <v>1.585531998180642</v>
       </c>
       <c r="C20">
-        <v>0.2127990331845169</v>
+        <v>0.1145001013880851</v>
       </c>
       <c r="D20">
-        <v>0.2202978892015324</v>
+        <v>0.1854657262710475</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.428254000498931</v>
+        <v>0.722086748032325</v>
       </c>
       <c r="G20">
-        <v>0.7908038579426631</v>
+        <v>0.4208428890962779</v>
       </c>
       <c r="H20">
-        <v>0.8751627931924446</v>
+        <v>0.3418471921386157</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.222610311075421</v>
+        <v>0.0916889820586384</v>
       </c>
       <c r="K20">
-        <v>0.4270488903910348</v>
+        <v>1.230330452013902</v>
       </c>
       <c r="L20">
-        <v>0.3417766097612827</v>
+        <v>0.335361905024925</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.758130305854374</v>
+        <v>0.7655995337295334</v>
       </c>
       <c r="O20">
-        <v>3.347777093365181</v>
+        <v>1.55602740594108</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.873909495850711</v>
+        <v>1.784991752791882</v>
       </c>
       <c r="C21">
-        <v>0.2121918528352609</v>
+        <v>0.113617034342699</v>
       </c>
       <c r="D21">
-        <v>0.2243233856944045</v>
+        <v>0.2039249994298729</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.425749764631547</v>
+        <v>0.7510314910476552</v>
       </c>
       <c r="G21">
-        <v>0.7884661149138026</v>
+        <v>0.4369184671686384</v>
       </c>
       <c r="H21">
-        <v>0.8701743580706705</v>
+        <v>0.3429392029369041</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2216533543908064</v>
+        <v>0.09312792738118247</v>
       </c>
       <c r="K21">
-        <v>0.4734167712418582</v>
+        <v>1.38508245217605</v>
       </c>
       <c r="L21">
-        <v>0.3501248482435528</v>
+        <v>0.3715147565928731</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.739761354389813</v>
+        <v>0.7234829355538768</v>
       </c>
       <c r="O21">
-        <v>3.332647246664919</v>
+        <v>1.592786558927344</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9106143171099745</v>
+        <v>1.915949442043257</v>
       </c>
       <c r="C22">
-        <v>0.2118222376838403</v>
+        <v>0.1130868787246655</v>
       </c>
       <c r="D22">
-        <v>0.227020524419828</v>
+        <v>0.2161220131608559</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.424655731453932</v>
+        <v>0.77117759658843</v>
       </c>
       <c r="G22">
-        <v>0.7872941410902285</v>
+        <v>0.4483424456842471</v>
       </c>
       <c r="H22">
-        <v>0.8671804854314615</v>
+        <v>0.3441789303117986</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2210952650701152</v>
+        <v>0.09419547226382718</v>
       </c>
       <c r="K22">
-        <v>0.5037116785979379</v>
+        <v>1.486478707468592</v>
       </c>
       <c r="L22">
-        <v>0.355685758156838</v>
+        <v>0.3953921165472707</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.728216483356139</v>
+        <v>0.6969923970367802</v>
       </c>
       <c r="O22">
-        <v>3.324063742286967</v>
+        <v>1.619850316546945</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8910106381121921</v>
+        <v>1.845995339077916</v>
       </c>
       <c r="C23">
-        <v>0.2120170261790761</v>
+        <v>0.113365500668916</v>
       </c>
       <c r="D23">
-        <v>0.2255749840813053</v>
+        <v>0.2095995321330406</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.425190050481568</v>
+        <v>0.7603085605044697</v>
       </c>
       <c r="G23">
-        <v>0.7878870979512413</v>
+        <v>0.4421578802356265</v>
       </c>
       <c r="H23">
-        <v>0.8687540292721678</v>
+        <v>0.343467637032262</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2213869760480307</v>
+        <v>0.09361372611895291</v>
       </c>
       <c r="K23">
-        <v>0.4875437707256651</v>
+        <v>1.432334972537035</v>
       </c>
       <c r="L23">
-        <v>0.3527082586686276</v>
+        <v>0.3826242729012534</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.734336085856743</v>
+        <v>0.7110338789031125</v>
       </c>
       <c r="O23">
-        <v>3.328525629580128</v>
+        <v>1.605117403746931</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8170691552017217</v>
+        <v>1.582281027970055</v>
       </c>
       <c r="C24">
-        <v>0.2128094183942757</v>
+        <v>0.114515320485804</v>
       </c>
       <c r="D24">
-        <v>0.220233220623939</v>
+        <v>0.1851661405674179</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.428304105838905</v>
+        <v>0.7216334895914827</v>
       </c>
       <c r="G24">
-        <v>0.7908480784278993</v>
+        <v>0.4205948916511488</v>
       </c>
       <c r="H24">
-        <v>0.8752488298455035</v>
+        <v>0.3418378986477961</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2226270909654069</v>
+        <v>0.09166753352133128</v>
       </c>
       <c r="K24">
-        <v>0.4262909241194563</v>
+        <v>1.227804765550673</v>
       </c>
       <c r="L24">
-        <v>0.3416419449603438</v>
+        <v>0.3347749479151787</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.758438308896631</v>
+        <v>0.7663048792365785</v>
       </c>
       <c r="O24">
-        <v>3.348046429850399</v>
+        <v>1.555475653079583</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7379933094377407</v>
+        <v>1.299946454760857</v>
       </c>
       <c r="C25">
-        <v>0.213781774095807</v>
+        <v>0.1159540776242238</v>
       </c>
       <c r="D25">
-        <v>0.214759147232769</v>
+        <v>0.1593277548959406</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.433999210565005</v>
+        <v>0.6847872842577942</v>
       </c>
       <c r="G25">
-        <v>0.7955713782951435</v>
+        <v>0.4009485085461506</v>
       </c>
       <c r="H25">
-        <v>0.8834010883666039</v>
+        <v>0.3421950111300305</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2242548262523307</v>
+        <v>0.09008063604392547</v>
       </c>
       <c r="K25">
-        <v>0.3602017410856035</v>
+        <v>1.007989077629759</v>
       </c>
       <c r="L25">
-        <v>0.3301609918094783</v>
+        <v>0.2841145060662171</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.786413347356612</v>
+        <v>0.8301460646411556</v>
       </c>
       <c r="O25">
-        <v>3.374713690945043</v>
+        <v>1.51398465043232</v>
       </c>
     </row>
   </sheetData>
